--- a/TE.xlsx
+++ b/TE.xlsx
@@ -246,12 +246,6 @@
     <t>Levine Toilolo - DET</t>
   </si>
   <si>
-    <t xml:space="preserve">Lee Smith - </t>
-  </si>
-  <si>
-    <t>Troy Niklas - NE</t>
-  </si>
-  <si>
     <t>Maxx Williams - BAL</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t>Jeremy Sprinkle - WAS</t>
   </si>
   <si>
-    <t>Phillip Supernaw - TEN</t>
-  </si>
-  <si>
     <t>Gabe Holmes - ARI</t>
   </si>
   <si>
@@ -372,9 +363,6 @@
     <t>Chris Manhertz - CAR</t>
   </si>
   <si>
-    <t>Bucky Hodges - NYJ</t>
-  </si>
-  <si>
     <t>Alex Gray - ATL</t>
   </si>
   <si>
@@ -406,6 +394,18 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Lee Smith - OAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troy Niklas - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillip Supernaw - </t>
+  </si>
+  <si>
+    <t>Bucky Hodges - PIT</t>
   </si>
 </sst>
 </file>
@@ -750,12 +750,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1140,267 +1140,267 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
